--- a/Cartel1.xlsx
+++ b/Cartel1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricca\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E69B84D9-8293-41B6-9954-06E8B13A0BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7571FC0-91A7-4F60-A086-3304962194F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{685D4960-552B-44B0-B16F-B2D51BAEC2F3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>db-first</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prezzo </t>
+  </si>
+  <si>
+    <t>decimal(12,2)</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEF711F-F719-4C5A-8BA7-E02C3FD44A12}">
-  <dimension ref="B4:E19"/>
+  <dimension ref="B4:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,6 +630,17 @@
         <v>22</v>
       </c>
     </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
